--- a/data/aineisto_rev2023_v3.xlsx
+++ b/data/aineisto_rev2023_v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anttitanskanen/Github/Syntyvyyden-tekij-t/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED62A14-0F30-C745-A092-72CF41F8AC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6963E89B-8B54-1546-B5B1-2C8DB05C6EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="780" windowWidth="21540" windowHeight="17700" xr2:uid="{7A7B6AD2-3A7D-5D45-9F88-9535E8DFA96B}"/>
+    <workbookView xWindow="1980" yWindow="760" windowWidth="27360" windowHeight="17420" activeTab="2" xr2:uid="{7A7B6AD2-3A7D-5D45-9F88-9535E8DFA96B}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="syntyvyysaineisto_CHECK2023" localSheetId="0">data!$A$1:$AZ$43</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3388,10 +3388,10 @@
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3420,7 +3420,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="alypuhelin"/>
@@ -4413,7 +4413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5873E55E-AD10-E54B-ABAD-63D2E5A9C7F1}">
   <dimension ref="A1:AZ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE6" workbookViewId="0">
+    <sheetView topLeftCell="AC12" workbookViewId="0">
       <selection activeCell="AN43" sqref="AN43"/>
     </sheetView>
   </sheetViews>
@@ -11310,7 +11310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5F44FB-0FF3-F045-B042-806F248D2116}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -12092,8 +12092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759DB07B-ABAF-8447-8C4A-3DB867F92E5A}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12355,7 +12355,7 @@
         <v>75.900000000000006</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" ref="D23:D34" si="0">B23-B22</f>
+        <f t="shared" ref="D23:D33" si="0">B23-B22</f>
         <v>0.89999999999999147</v>
       </c>
       <c r="E23" s="9">
